--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Lta</t>
+  </si>
+  <si>
+    <t>Tnfrsf1a</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lta</t>
-  </si>
-  <si>
-    <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H2">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I2">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J2">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N2">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O2">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P2">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q2">
-        <v>5.99707007666989</v>
+        <v>8.822209018292446</v>
       </c>
       <c r="R2">
-        <v>53.973630690029</v>
+        <v>79.39988116463201</v>
       </c>
       <c r="S2">
-        <v>0.004689547555088262</v>
+        <v>0.004810618648334351</v>
       </c>
       <c r="T2">
-        <v>0.004689547555088261</v>
+        <v>0.004810618648334351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H3">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I3">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J3">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q3">
-        <v>12.23591510497867</v>
+        <v>11.08165656781867</v>
       </c>
       <c r="R3">
-        <v>110.123235944808</v>
+        <v>99.73490911036799</v>
       </c>
       <c r="S3">
-        <v>0.009568156621688714</v>
+        <v>0.006042661608793247</v>
       </c>
       <c r="T3">
-        <v>0.009568156621688712</v>
+        <v>0.006042661608793247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H4">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I4">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J4">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N4">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q4">
-        <v>11.25783841057645</v>
+        <v>14.43959166166223</v>
       </c>
       <c r="R4">
-        <v>101.320545695188</v>
+        <v>129.95632495496</v>
       </c>
       <c r="S4">
-        <v>0.008803326944482454</v>
+        <v>0.007873693400133278</v>
       </c>
       <c r="T4">
-        <v>0.008803326944482453</v>
+        <v>0.007873693400133277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H5">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I5">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J5">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N5">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q5">
-        <v>3.827616697655334</v>
+        <v>2.471936852463556</v>
       </c>
       <c r="R5">
-        <v>34.448550278898</v>
+        <v>22.247431672172</v>
       </c>
       <c r="S5">
-        <v>0.002993093343386761</v>
+        <v>0.00134791019973677</v>
       </c>
       <c r="T5">
-        <v>0.00299309334338676</v>
+        <v>0.00134791019973677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H6">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I6">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J6">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N6">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q6">
-        <v>27.70801521768911</v>
+        <v>29.33755989263867</v>
       </c>
       <c r="R6">
-        <v>249.372136959202</v>
+        <v>264.038039033748</v>
       </c>
       <c r="S6">
-        <v>0.02166692290722999</v>
+        <v>0.01599733268884507</v>
       </c>
       <c r="T6">
-        <v>0.02166692290722999</v>
+        <v>0.01599733268884507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H7">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I7">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J7">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N7">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q7">
-        <v>12.31336911914333</v>
+        <v>8.58368946503289</v>
       </c>
       <c r="R7">
-        <v>110.82032207229</v>
+        <v>77.25320518529601</v>
       </c>
       <c r="S7">
-        <v>0.009628723578238166</v>
+        <v>0.004680557502818114</v>
       </c>
       <c r="T7">
-        <v>0.009628723578238164</v>
+        <v>0.004680557502818114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H8">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I8">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J8">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N8">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O8">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P8">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q8">
-        <v>2.46636132488</v>
+        <v>3.263472281211111</v>
       </c>
       <c r="R8">
-        <v>22.19725192392</v>
+        <v>29.3712505309</v>
       </c>
       <c r="S8">
-        <v>0.001928628242322924</v>
+        <v>0.001779522632230159</v>
       </c>
       <c r="T8">
-        <v>0.001928628242322924</v>
+        <v>0.001779522632230159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H9">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I9">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J9">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>158.443176</v>
       </c>
       <c r="O9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q9">
-        <v>5.03215526976</v>
+        <v>4.099277059066667</v>
       </c>
       <c r="R9">
-        <v>45.28939742783999</v>
+        <v>36.8934935316</v>
       </c>
       <c r="S9">
-        <v>0.003935010120013728</v>
+        <v>0.002235274478778123</v>
       </c>
       <c r="T9">
-        <v>0.003935010120013728</v>
+        <v>0.002235274478778123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H10">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I10">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J10">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N10">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q10">
-        <v>4.62991042336</v>
+        <v>5.341429458555557</v>
       </c>
       <c r="R10">
-        <v>41.66919381024</v>
+        <v>48.07286512700001</v>
       </c>
       <c r="S10">
-        <v>0.003620465465396412</v>
+        <v>0.002912601606787055</v>
       </c>
       <c r="T10">
-        <v>0.003620465465396412</v>
+        <v>0.002912601606787054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H11">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I11">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J11">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N11">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q11">
-        <v>1.57414965456</v>
+        <v>0.9144078747388888</v>
       </c>
       <c r="R11">
-        <v>14.16734689104</v>
+        <v>8.229670872650001</v>
       </c>
       <c r="S11">
-        <v>0.001230942705272515</v>
+        <v>0.0004986129398296766</v>
       </c>
       <c r="T11">
-        <v>0.001230942705272514</v>
+        <v>0.0004986129398296766</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H12">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I12">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J12">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N12">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q12">
-        <v>11.39522737744</v>
+        <v>10.85241953681667</v>
       </c>
       <c r="R12">
-        <v>102.55704639696</v>
+        <v>97.67177583135</v>
       </c>
       <c r="S12">
-        <v>0.008910761422554928</v>
+        <v>0.005917662083851085</v>
       </c>
       <c r="T12">
-        <v>0.008910761422554928</v>
+        <v>0.005917662083851085</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H13">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I13">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J13">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N13">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q13">
-        <v>5.0640090888</v>
+        <v>3.175240190022222</v>
       </c>
       <c r="R13">
-        <v>45.5760817992</v>
+        <v>28.5771617102</v>
       </c>
       <c r="S13">
-        <v>0.003959918950040641</v>
+        <v>0.001731410992347821</v>
       </c>
       <c r="T13">
-        <v>0.003959918950040641</v>
+        <v>0.00173141099234782</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H14">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I14">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J14">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N14">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O14">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P14">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q14">
-        <v>88.70842643199035</v>
+        <v>204.3955086130725</v>
       </c>
       <c r="R14">
-        <v>798.3758378879131</v>
+        <v>1839.559577517652</v>
       </c>
       <c r="S14">
-        <v>0.06936760434203049</v>
+        <v>0.1114538142693138</v>
       </c>
       <c r="T14">
-        <v>0.06936760434203047</v>
+        <v>0.1114538142693138</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,14 +1334,14 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H15">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I15">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J15">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>158.443176</v>
       </c>
       <c r="O15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q15">
-        <v>180.993178509064</v>
+        <v>256.7430476605387</v>
       </c>
       <c r="R15">
-        <v>1628.938606581576</v>
+        <v>2310.687428944848</v>
       </c>
       <c r="S15">
-        <v>0.1415317991808678</v>
+        <v>0.1399981444947715</v>
       </c>
       <c r="T15">
-        <v>0.1415317991808678</v>
+        <v>0.1399981444947715</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H16">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I16">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J16">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N16">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q16">
-        <v>166.5255062322707</v>
+        <v>334.5406661450623</v>
       </c>
       <c r="R16">
-        <v>1498.729556090436</v>
+        <v>3010.86599530556</v>
       </c>
       <c r="S16">
-        <v>0.1302184684566871</v>
+        <v>0.1824200224509219</v>
       </c>
       <c r="T16">
-        <v>0.1302184684566871</v>
+        <v>0.1824200224509218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H17">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I17">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J17">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N17">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q17">
-        <v>56.61795675103401</v>
+        <v>57.27055312009356</v>
       </c>
       <c r="R17">
-        <v>509.561610759306</v>
+        <v>515.434978080842</v>
       </c>
       <c r="S17">
-        <v>0.04427371987678037</v>
+        <v>0.03122877617937803</v>
       </c>
       <c r="T17">
-        <v>0.04427371987678037</v>
+        <v>0.03122877617937803</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H18">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I18">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J18">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N18">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q18">
-        <v>409.8558793029327</v>
+        <v>679.7011341818087</v>
       </c>
       <c r="R18">
-        <v>3688.702913726394</v>
+        <v>6117.310207636278</v>
       </c>
       <c r="S18">
-        <v>0.3204962777074811</v>
+        <v>0.3706308640624217</v>
       </c>
       <c r="T18">
-        <v>0.3204962777074811</v>
+        <v>0.3706308640624217</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H19">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I19">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J19">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N19">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q19">
-        <v>182.13887526257</v>
+        <v>198.8694181178729</v>
       </c>
       <c r="R19">
-        <v>1639.24987736313</v>
+        <v>1789.824763060856</v>
       </c>
       <c r="S19">
-        <v>0.1424277032374467</v>
+        <v>0.1084405197607083</v>
       </c>
       <c r="T19">
-        <v>0.1424277032374467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J20">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>25.88540433333334</v>
-      </c>
-      <c r="N20">
-        <v>77.65621300000001</v>
-      </c>
-      <c r="O20">
-        <v>0.08177099014340375</v>
-      </c>
-      <c r="P20">
-        <v>0.08177099014340374</v>
-      </c>
-      <c r="Q20">
-        <v>7.398221127828891</v>
-      </c>
-      <c r="R20">
-        <v>66.58399015046001</v>
-      </c>
-      <c r="S20">
-        <v>0.005785210003962083</v>
-      </c>
-      <c r="T20">
-        <v>0.005785210003962082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J21">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>52.814392</v>
-      </c>
-      <c r="N21">
-        <v>158.443176</v>
-      </c>
-      <c r="O21">
-        <v>0.1668386196347945</v>
-      </c>
-      <c r="P21">
-        <v>0.1668386196347945</v>
-      </c>
-      <c r="Q21">
-        <v>15.09470532954667</v>
-      </c>
-      <c r="R21">
-        <v>135.85234796592</v>
-      </c>
-      <c r="S21">
-        <v>0.01180365371222422</v>
-      </c>
-      <c r="T21">
-        <v>0.01180365371222422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J22">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>48.59267866666667</v>
-      </c>
-      <c r="N22">
-        <v>145.778036</v>
-      </c>
-      <c r="O22">
-        <v>0.1535023906571488</v>
-      </c>
-      <c r="P22">
-        <v>0.1535023906571488</v>
-      </c>
-      <c r="Q22">
-        <v>13.88811151412445</v>
-      </c>
-      <c r="R22">
-        <v>124.99300362712</v>
-      </c>
-      <c r="S22">
-        <v>0.01086012979058282</v>
-      </c>
-      <c r="T22">
-        <v>0.01086012979058282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J23">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>16.521302</v>
-      </c>
-      <c r="N23">
-        <v>49.563906</v>
-      </c>
-      <c r="O23">
-        <v>0.05219015340079215</v>
-      </c>
-      <c r="P23">
-        <v>0.05219015340079215</v>
-      </c>
-      <c r="Q23">
-        <v>4.721898253613334</v>
-      </c>
-      <c r="R23">
-        <v>42.49708428252001</v>
-      </c>
-      <c r="S23">
-        <v>0.003692397475352504</v>
-      </c>
-      <c r="T23">
-        <v>0.003692397475352503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J24">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>119.5972646666667</v>
-      </c>
-      <c r="N24">
-        <v>358.791794</v>
-      </c>
-      <c r="O24">
-        <v>0.3778031289100866</v>
-      </c>
-      <c r="P24">
-        <v>0.3778031289100866</v>
-      </c>
-      <c r="Q24">
-        <v>34.18169555683112</v>
-      </c>
-      <c r="R24">
-        <v>307.6352600114801</v>
-      </c>
-      <c r="S24">
-        <v>0.02672916687282063</v>
-      </c>
-      <c r="T24">
-        <v>0.02672916687282063</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J25">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>53.14871</v>
-      </c>
-      <c r="N25">
-        <v>159.44613</v>
-      </c>
-      <c r="O25">
-        <v>0.1678947172537743</v>
-      </c>
-      <c r="P25">
-        <v>0.1678947172537743</v>
-      </c>
-      <c r="Q25">
-        <v>15.19025564273334</v>
-      </c>
-      <c r="R25">
-        <v>136.7123007846</v>
-      </c>
-      <c r="S25">
-        <v>0.01187837148804872</v>
-      </c>
-      <c r="T25">
-        <v>0.01187837148804872</v>
+        <v>0.1084405197607083</v>
       </c>
     </row>
   </sheetData>
